--- a/biology/Zoologie/Brenthis/Brenthis.xlsx
+++ b/biology/Zoologie/Brenthis/Brenthis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brenthis est un genre paléarctique de lépidoptères de la famille des Nymphalidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Brenthis a été décrit par l'entomologiste allemand Jakob Hübner en 1819[1].
-Son espèce type est Papilio hecate [Denis &amp; Schiffermüller], 1775[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Brenthis a été décrit par l'entomologiste allemand Jakob Hübner en 1819.
+Son espèce type est Papilio hecate [Denis &amp; Schiffermüller], 1775. 
 Il est classé dans la famille des Nymphalidae, la sous-famille des Heliconiinae, la tribu des Argynnini et la sous-tribu des Argynnina.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Liste et répartition des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Brenthis comporte quatre espèces, toutes originaires de l'écozone paléarctique[2],[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Brenthis comporte quatre espèces, toutes originaires de l'écozone paléarctique, :
 Brenthis daphne (Bergsträsser, 1780) — le Nacré de la ronce — Eurasie tempérée.
 Brenthis ino (Rottemburg, 1775) — le Nacré de la sanguisorbe — Eurasie tempérée.
 Brenthis hecate ([Denis &amp; Schiffermüller], 1775) — le Nacré de la filipendule — Eurasie tempérée.
